--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">REMISIONES    POR     CREDITOS         DE   </t>
@@ -657,15 +657,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,18 +758,6 @@
     <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -803,9 +782,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +790,30 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,18 +1210,18 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="55" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="18" style="65" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18" style="58" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
@@ -1229,1022 +1229,1042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>44420</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>44421</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="19">
         <f t="shared" ref="H4:H45" si="0">E4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>44420</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>6000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>44421</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <v>6000</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>44420</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>122</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>44421</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>122</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>44420</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>9913</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>44421</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>9913</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>44420</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22">
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>44421</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>44421</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>44422</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>14897.2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>44422</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <v>14897</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>0.2000000000007276</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>44422</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>1</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>44422</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>1</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>44422</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>9234</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>44422</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="23">
         <v>9234</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>44422</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>11402</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>44422</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>11402</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>44422</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>3192</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>44422</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <v>3192</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>44424</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>44424</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <v>1</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>44427</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>4837</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>44427</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>4837</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>44429</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>1678</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>44430</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>1678</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>44430</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>4412</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>44431</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="23">
         <v>4412</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>44432</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>1523</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="22">
-        <f t="shared" si="0"/>
+      <c r="F19" s="22">
+        <v>44433</v>
+      </c>
+      <c r="G19" s="23">
         <v>1523</v>
       </c>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="12">
+        <v>44434</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="22">
+      <c r="C20" s="25"/>
+      <c r="D20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="21">
+        <v>4922</v>
+      </c>
+      <c r="F20" s="22">
+        <v>44435</v>
+      </c>
+      <c r="G20" s="23">
+        <v>4922</v>
+      </c>
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="12">
+        <v>44435</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C21" s="25"/>
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4859</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="19">
+        <f t="shared" si="0"/>
+        <v>4859</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="22">
+      <c r="C22" s="25"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="22">
+      <c r="C23" s="25"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="22">
+      <c r="C24" s="25"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="22">
+      <c r="C25" s="25"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="22">
+      <c r="C26" s="25"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="22">
+      <c r="C27" s="25"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="22">
+      <c r="C28" s="25"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="22">
+      <c r="C29" s="25"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="22">
+      <c r="C30" s="25"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="22">
+      <c r="C31" s="25"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="22">
+      <c r="C32" s="25"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="22">
+      <c r="C33" s="25"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="22">
+      <c r="C34" s="28"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="22">
+      <c r="C35" s="29"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="22">
+      <c r="C36" s="25"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22">
+      <c r="C37" s="25"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="22">
+      <c r="C38" s="25"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="22">
+      <c r="C39" s="25"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="22">
+      <c r="C40" s="25"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="22">
+      <c r="C41" s="25"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="22">
+      <c r="C42" s="25"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="22">
+      <c r="C43" s="25"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="22">
+      <c r="C44" s="25"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="5"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="44">
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="41">
         <f>SUM(E4:E45)</f>
-        <v>67216.2</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44">
+        <v>76997.2</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <f>SUM(G4:G45)</f>
-        <v>65693</v>
-      </c>
-      <c r="H46" s="45">
+        <v>72138</v>
+      </c>
+      <c r="H46" s="42">
         <f>SUM(H4:H45)</f>
-        <v>1523.2000000000007</v>
-      </c>
-      <c r="I46" s="5"/>
+        <v>4859.2000000000007</v>
+      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="5"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="50" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="51" t="s">
+      <c r="F48" s="44"/>
+      <c r="G48" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="5"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="5"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="52">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="66">
         <f>E46-G46</f>
-        <v>1523.1999999999971</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="54"/>
-      <c r="I50" s="5"/>
+        <v>4859.1999999999971</v>
+      </c>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="I51" s="5"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="55" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="I53" s="5"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="59"/>
-      <c r="I54" s="5"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="52"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="I55" s="5"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="I56" s="5"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="I57" s="5"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="I58" s="5"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="I59" s="5"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="I60" s="5"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="I61" s="5"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="I62" s="5"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="I63" s="5"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="I63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">REMISIONES    POR     CREDITOS         DE   </t>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1713,23 +1713,37 @@
       <c r="E21" s="21">
         <v>4859</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="22">
+        <v>44436</v>
+      </c>
+      <c r="G21" s="23">
+        <v>4859</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>4859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44438</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1360</v>
+      </c>
+      <c r="F22" s="22">
+        <v>44439</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1360</v>
+      </c>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2087,16 +2101,16 @@
       <c r="D46" s="2"/>
       <c r="E46" s="41">
         <f>SUM(E4:E45)</f>
-        <v>76997.2</v>
+        <v>78357.2</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41">
         <f>SUM(G4:G45)</f>
-        <v>72138</v>
+        <v>78357</v>
       </c>
       <c r="H46" s="42">
         <f>SUM(H4:H45)</f>
-        <v>4859.2000000000007</v>
+        <v>0.2000000000007276</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -2140,7 +2154,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="66">
         <f>E46-G46</f>
-        <v>4859.1999999999971</v>
+        <v>0.19999999999708962</v>
       </c>
       <c r="F50" s="67"/>
       <c r="G50" s="68"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/CREDITOS  4 CARNES HERRADURA AGOSTO 2021.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="REMISIONES  AGOSTO   2021    " sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <r>
       <t xml:space="preserve">REMISIONES    POR     CREDITOS         DE   </t>
@@ -166,72 +167,6 @@
   </si>
   <si>
     <t>,0019</t>
-  </si>
-  <si>
-    <t>,0020</t>
-  </si>
-  <si>
-    <t>,0021</t>
-  </si>
-  <si>
-    <t>,0022</t>
-  </si>
-  <si>
-    <t>,0023</t>
-  </si>
-  <si>
-    <t>,0024</t>
-  </si>
-  <si>
-    <t>,0025</t>
-  </si>
-  <si>
-    <t>,0026</t>
-  </si>
-  <si>
-    <t>,0027</t>
-  </si>
-  <si>
-    <t>,0028</t>
-  </si>
-  <si>
-    <t>,0029</t>
-  </si>
-  <si>
-    <t>,0030</t>
-  </si>
-  <si>
-    <t>,0031</t>
-  </si>
-  <si>
-    <t>,0032</t>
-  </si>
-  <si>
-    <t>,0033</t>
-  </si>
-  <si>
-    <t>,0034</t>
-  </si>
-  <si>
-    <t>,0035</t>
-  </si>
-  <si>
-    <t>,0036</t>
-  </si>
-  <si>
-    <t>,0037</t>
-  </si>
-  <si>
-    <t>,0038</t>
-  </si>
-  <si>
-    <t>,0039</t>
-  </si>
-  <si>
-    <t>,0040</t>
-  </si>
-  <si>
-    <t>,0041</t>
   </si>
   <si>
     <t xml:space="preserve">CENTRAL  </t>
@@ -1207,10 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1224,7 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -1312,7 +1250,7 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="27" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E5" s="21">
         <v>6000</v>
@@ -1337,7 +1275,7 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="27" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E6" s="21">
         <v>122</v>
@@ -1362,7 +1300,7 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="20" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E7" s="21">
         <v>9913</v>
@@ -1387,7 +1325,7 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="61" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E8" s="21">
         <v>0</v>
@@ -1408,7 +1346,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E9" s="21">
         <v>2</v>
@@ -1433,10 +1371,10 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="20" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E10" s="21">
-        <v>14897.2</v>
+        <v>14897</v>
       </c>
       <c r="F10" s="22">
         <v>44422</v>
@@ -1446,7 +1384,7 @@
       </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0.2000000000007276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,7 +1396,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="20" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E11" s="21">
         <v>1</v>
@@ -1483,7 +1421,7 @@
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="20" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E12" s="21">
         <v>9234</v>
@@ -1508,7 +1446,7 @@
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="20" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E13" s="21">
         <v>11402</v>
@@ -1533,7 +1471,7 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="27" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E14" s="21">
         <v>3192</v>
@@ -1558,7 +1496,7 @@
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="20" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -1583,7 +1521,7 @@
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E16" s="21">
         <v>4837</v>
@@ -1608,7 +1546,7 @@
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E17" s="21">
         <v>1678</v>
@@ -1633,7 +1571,7 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="20" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E18" s="21">
         <v>4412</v>
@@ -1683,7 +1621,7 @@
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="20" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E20" s="21">
         <v>4922</v>
@@ -1708,7 +1646,7 @@
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="20" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21">
         <v>4859</v>
@@ -1751,9 +1689,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="25"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
@@ -1766,9 +1702,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="25"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
@@ -1781,9 +1715,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="25"/>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
@@ -1794,11 +1726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="25"/>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
@@ -1809,11 +1739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="25"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
@@ -1824,11 +1752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="25"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
@@ -1839,11 +1765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="25"/>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
@@ -1854,11 +1778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="25"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
@@ -1869,11 +1791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="B31" s="13"/>
       <c r="C31" s="25"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
@@ -1884,11 +1804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="13"/>
       <c r="C32" s="25"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
@@ -1899,11 +1817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B33" s="13"/>
       <c r="C33" s="25"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -1914,11 +1830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="B34" s="13"/>
       <c r="C34" s="28"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
@@ -1929,11 +1843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="C35" s="29"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
@@ -1944,11 +1856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="25"/>
       <c r="D36" s="20"/>
       <c r="E36" s="21"/>
@@ -1959,11 +1869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="25"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
@@ -1974,11 +1882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="25"/>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
@@ -1989,11 +1895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="25"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
@@ -2004,11 +1908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="25"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
@@ -2019,11 +1921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="B41" s="13"/>
       <c r="C41" s="25"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
@@ -2034,11 +1934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="B42" s="13"/>
       <c r="C42" s="25"/>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
@@ -2049,11 +1947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="C43" s="25"/>
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
@@ -2064,11 +1960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="C44" s="25"/>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
@@ -2101,7 +1995,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="41">
         <f>SUM(E4:E45)</f>
-        <v>78357.2</v>
+        <v>78357</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41">
@@ -2110,7 +2004,7 @@
       </c>
       <c r="H46" s="42">
         <f>SUM(H4:H45)</f>
-        <v>0.2000000000007276</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -2154,7 +2048,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="66">
         <f>E46-G46</f>
-        <v>0.19999999999708962</v>
+        <v>0</v>
       </c>
       <c r="F50" s="67"/>
       <c r="G50" s="68"/>
@@ -2291,4 +2185,16 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>